--- a/Seung9/event table 크롤링/event.xlsx
+++ b/Seung9/event table 크롤링/event.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" tabRatio="605" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" tabRatio="605"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1532,8 +1532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2744,8 +2744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
